--- a/01-需求功能清单.xlsx
+++ b/01-需求功能清单.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+  <si>
+    <t>2020051615042张金利</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -40,12 +43,19 @@
     <t>功能描述</t>
   </si>
   <si>
+    <t xml:space="preserve">WEB
+</t>
+  </si>
+  <si>
     <t>通用</t>
   </si>
   <si>
     <t>登录</t>
   </si>
   <si>
+    <t>登陆成功进入对应主页；登陆失败弹出提示</t>
+  </si>
+  <si>
     <t>1.账号密码登录</t>
   </si>
   <si>
@@ -58,7 +68,7 @@
     <t>注册</t>
   </si>
   <si>
-    <t>手机号注册</t>
+    <t>手机号注册，注册时区分身份</t>
   </si>
   <si>
     <t>忘记密码</t>
@@ -73,16 +83,22 @@
     <t>课程列表</t>
   </si>
   <si>
+    <t>学生可以浏览系统中提供的课程以及已选的课程，查看课程的基本信息，选择感兴趣的课程</t>
+  </si>
+  <si>
     <t>课程详情</t>
   </si>
   <si>
+    <t>查看课程的详细信息（如课程名称，教师，学分等）</t>
+  </si>
+  <si>
     <t>作业</t>
   </si>
   <si>
-    <t>提交作业</t>
-  </si>
-  <si>
-    <t>提交作业，覆盖上次提交</t>
+    <t>提交，deadline</t>
+  </si>
+  <si>
+    <t>提交作业，如果已提交支持覆盖上次提交;截止日期前发出deadline消息</t>
   </si>
   <si>
     <t>成绩</t>
@@ -91,7 +107,7 @@
     <t>查看成绩</t>
   </si>
   <si>
-    <t>查看个人课程成绩，排名</t>
+    <t>查看个人课程成绩，排名以及成绩分布</t>
   </si>
   <si>
     <t>讨论区</t>
@@ -100,22 +116,19 @@
     <t>讨论问题</t>
   </si>
   <si>
-    <t>在讨论区发布问题，回答问题</t>
+    <t>在讨论区发布问题，回答问题。支持查询历史消息，@消息</t>
   </si>
   <si>
     <t>通知</t>
   </si>
   <si>
-    <t>收发消息</t>
-  </si>
-  <si>
-    <t>1.收发私聊信息</t>
-  </si>
-  <si>
-    <t>2.接收课程公告</t>
-  </si>
-  <si>
-    <t>3.接收系统消息</t>
+    <t>1.接收课程公告</t>
+  </si>
+  <si>
+    <t>2.接收系统消息</t>
+  </si>
+  <si>
+    <t>3.接收deadline</t>
   </si>
   <si>
     <t>个人信息</t>
@@ -124,7 +137,7 @@
     <t>编辑个人信息</t>
   </si>
   <si>
-    <t>查看、修改个人信息</t>
+    <t>查看、修改个人信息，包括姓名、学号、联系方式等；修改个人信息需要通过审核</t>
   </si>
   <si>
     <t>教师</t>
@@ -133,15 +146,24 @@
     <t>课程管理</t>
   </si>
   <si>
+    <t>创建、管理课程；创建课程时需要通过管理员审核</t>
+  </si>
+  <si>
     <t>编辑课程信息</t>
   </si>
   <si>
-    <t>查看修改课程信息，包括课程起始时间等</t>
+    <t>查看修改课程信息，包括课程起始时间等；修改课程信息需要管理员审核</t>
   </si>
   <si>
     <t>学生管理</t>
   </si>
   <si>
+    <t>管理课程学生</t>
+  </si>
+  <si>
+    <t>查看导出学生信息；添加删除学生</t>
+  </si>
+  <si>
     <t>成绩管理</t>
   </si>
   <si>
@@ -157,7 +179,7 @@
     <t>编辑考勤表</t>
   </si>
   <si>
-    <t>查看考勤情况，登记考勤</t>
+    <t>查看考勤情况，登记考勤，导出考勤表</t>
   </si>
   <si>
     <t>作业管理</t>
@@ -166,7 +188,7 @@
     <t>收发作业</t>
   </si>
   <si>
-    <t>发布专业，批改作业</t>
+    <t>发布作业，批改作业</t>
   </si>
   <si>
     <t>资源管理</t>
@@ -175,16 +197,13 @@
     <t>编辑资料</t>
   </si>
   <si>
-    <t>上传、删除学习资料，修改资料分类</t>
-  </si>
-  <si>
-    <t>参与问题讨论，发布问题抢答等</t>
-  </si>
-  <si>
-    <t>消息</t>
-  </si>
-  <si>
-    <t>2.发布课程公告</t>
+    <t>上传、删除学习资料，修改资料分类（限制资料大小）</t>
+  </si>
+  <si>
+    <t>参与问题讨论，发布问题抢答等。支持查询历史消息，@消息</t>
+  </si>
+  <si>
+    <t>1.发布课程公告</t>
   </si>
   <si>
     <t>管理员</t>
@@ -199,7 +218,7 @@
     <t>编辑人员</t>
   </si>
   <si>
-    <t>人员的增删查改</t>
+    <t>人员的增删查改；对人员信息更改的审核</t>
   </si>
   <si>
     <t>课程信息</t>
@@ -208,7 +227,7 @@
     <t>编辑课程</t>
   </si>
   <si>
-    <t>课程的增删查改</t>
+    <t>课程的增删查改；审核教师对课程信息的更改</t>
   </si>
   <si>
     <t>系统配置</t>
@@ -220,7 +239,7 @@
     <t>业务处理</t>
   </si>
   <si>
-    <t>数据备份、权限控制等</t>
+    <t>数据备份、权限控制、发布系统公告等</t>
   </si>
 </sst>
 </file>
@@ -228,12 +247,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,16 +267,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -265,43 +349,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,52 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -369,8 +387,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -379,6 +412,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -386,7 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,43 +448,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,139 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,17 +642,59 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,59 +714,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,10 +747,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,16 +759,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,119 +777,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,11 +902,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1191,387 +1247,550 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="6.57522123893805" customWidth="1"/>
     <col min="3" max="3" width="9.02654867256637" style="1"/>
     <col min="7" max="7" width="17.5309734513274" customWidth="1"/>
-    <col min="8" max="8" width="37.1238938053097" customWidth="1"/>
+    <col min="8" max="8" width="79.2566371681416" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2"/>
-      <c r="C2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:8">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:8">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:8">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:8">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:8">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:8">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:8">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:8">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="F11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:8">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3"/>
-      <c r="C3" s="4"/>
-      <c r="H3" s="2" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:8">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4"/>
-      <c r="C4" s="4"/>
-      <c r="E4" s="2" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="F13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:6">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:8">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="H15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:8">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:8">
-      <c r="A5"/>
-      <c r="C5" s="4"/>
-      <c r="E5" s="2" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="H16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:8">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="H17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:8">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:8">
-      <c r="A7"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:8">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:8">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:8">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="F22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:8">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="F23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:8">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:8">
-      <c r="A8"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="F8" s="3" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:8">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="F25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:8">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="F26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:8">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:8">
-      <c r="A9"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
-      <c r="F9" s="3" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="F27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:6">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:6">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:8">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:8">
-      <c r="A10"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="F10" s="3" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="H30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:8">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="H31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:8">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:8">
-      <c r="A11"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
-      <c r="H11" s="3" t="s">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:8">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:8">
-      <c r="A12"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
-      <c r="H12" s="3" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:8">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:8">
-      <c r="A13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:8">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:8">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:8">
-      <c r="A15"/>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:8">
-      <c r="A16"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:8">
-      <c r="A17"/>
-      <c r="C17" s="4"/>
-      <c r="F17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:8">
-      <c r="A18"/>
-      <c r="C18" s="4"/>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:8">
-      <c r="A19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:8">
-      <c r="A20"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:8">
-      <c r="A21"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:8">
-      <c r="A22"/>
-      <c r="C22" s="4"/>
-      <c r="H22" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:8">
-      <c r="A23"/>
-      <c r="C23" s="4"/>
-      <c r="H23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:8">
-      <c r="A24"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:8">
-      <c r="A26"/>
-      <c r="C26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:8">
-      <c r="A27"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:8">
-      <c r="A28"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:8">
-      <c r="A29"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>68</v>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B37"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>